--- a/BPE/sorties/part_unites_spatiales_equipements/2009-2018_comparaison_poste_police_gendarmerie.xlsx
+++ b/BPE/sorties/part_unites_spatiales_equipements/2009-2018_comparaison_poste_police_gendarmerie.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>communes équipées</t>
   </si>
@@ -42,16 +42,51 @@
   </si>
   <si>
     <t>population desservie</t>
+  </si>
+  <si>
+    <t>Collège</t>
+  </si>
+  <si>
+    <t>Etablissement santé court séjour</t>
+  </si>
+  <si>
+    <t>Etablissement santé long séjour</t>
+  </si>
+  <si>
+    <t>Etablissement santé moyen séjour</t>
+  </si>
+  <si>
+    <t>Maternité</t>
+  </si>
+  <si>
+    <t>Urgences</t>
+  </si>
+  <si>
+    <t>relocalisation dans espace dense ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,8 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,24 +396,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -386,11 +427,29 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -400,11 +459,29 @@
       <c r="C4">
         <v>3277</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>613</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>3723</v>
+      </c>
+      <c r="F4">
+        <v>1044</v>
+      </c>
+      <c r="G4">
+        <v>770</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1411</v>
+      </c>
+      <c r="I4">
+        <v>458</v>
+      </c>
+      <c r="J4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -414,16 +491,72 @@
       <c r="C5">
         <v>2904</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>596</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>3742</v>
+      </c>
+      <c r="F5">
+        <v>914</v>
+      </c>
+      <c r="G5">
+        <v>552</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1327</v>
+      </c>
+      <c r="I5">
+        <v>404</v>
+      </c>
+      <c r="J5">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>IF(B5&lt;B4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="0">IF(C5&lt;C4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="1">IF(D5&lt;D4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ref="E6" si="2">IF(E5&lt;E4,"diminution","augmentation")</f>
+        <v>augmentation</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6" si="3">IF(F5&lt;F4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6" si="4">IF(G5&lt;G4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" ref="H6" si="5">IF(H5&lt;H4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6" si="6">IF(I5&lt;I4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6" si="7">IF(J5&lt;J4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -433,11 +566,29 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -447,11 +598,29 @@
       <c r="C11">
         <v>25107319</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>22579219</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>40904579</v>
+      </c>
+      <c r="F11">
+        <v>25343352</v>
+      </c>
+      <c r="G11">
+        <v>16890725</v>
+      </c>
+      <c r="H11" s="2">
+        <v>25158502</v>
+      </c>
+      <c r="I11">
+        <v>19293558</v>
+      </c>
+      <c r="J11">
+        <v>19787615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -461,11 +630,73 @@
       <c r="C12">
         <v>17095874</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>22880242</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42252787</v>
+      </c>
+      <c r="F12">
+        <v>24536649</v>
+      </c>
+      <c r="G12">
+        <v>16005557</v>
+      </c>
+      <c r="H12" s="2">
+        <v>25674853</v>
+      </c>
+      <c r="I12">
+        <v>18013446</v>
+      </c>
+      <c r="J12">
+        <v>19603097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>IF(B12&lt;B11,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:J13" si="8">IF(C12&lt;C11,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>augmentation</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>augmentation</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="8"/>
+        <v>diminution</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="8"/>
+        <v>diminution</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>augmentation</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="8"/>
+        <v>diminution</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="8"/>
+        <v>diminution</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BPE/sorties/part_unites_spatiales_equipements/2009-2018_comparaison_poste_police_gendarmerie.xlsx
+++ b/BPE/sorties/part_unites_spatiales_equipements/2009-2018_comparaison_poste_police_gendarmerie.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coffe Bay\Sync\Post-doc_LabEx_DynamiTe\data\postdoc_services_publics\BPE\sorties\part_unites_spatiales_equipements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Post-doc_LabEx_DynamiTe\data\postdoc_services_publics\BPE\sorties\part_unites_spatiales_equipements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>communes équipées</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>Bureau de poste</t>
   </si>
   <si>
@@ -62,17 +59,41 @@
     <t>Urgences</t>
   </si>
   <si>
-    <t>relocalisation dans espace dense ?</t>
+    <t>Diminution du nombre de communes desservies mais augmentation de la population desservie : relocalisation dans des espaces plus densément peuplés ? Logique de concentration ?</t>
+  </si>
+  <si>
+    <t>évolution</t>
+  </si>
+  <si>
+    <t>chronologie</t>
+  </si>
+  <si>
+    <t>aires urbaines équipées</t>
+  </si>
+  <si>
+    <t>Echelle des aires urbaines de la France métropolitaine (nb = 759)</t>
+  </si>
+  <si>
+    <t>Echelle des communes des aires urbaines de la France métropolitaine (nb = 17 404)</t>
+  </si>
+  <si>
+    <t>Echelle des communes de la France métropolitaine (nb = 34 523)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,7 +107,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,14 +159,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,306 +475,863 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9400</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3277</v>
+      </c>
+      <c r="D4" s="4">
+        <v>613</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3723</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1044</v>
+      </c>
+      <c r="G4" s="3">
+        <v>770</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1411</v>
+      </c>
+      <c r="I4" s="3">
+        <v>458</v>
+      </c>
+      <c r="J4" s="3">
+        <v>559</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6531</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2904</v>
+      </c>
+      <c r="D5" s="4">
+        <v>596</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3742</v>
+      </c>
+      <c r="F5" s="3">
+        <v>914</v>
+      </c>
+      <c r="G5" s="3">
+        <v>552</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1327</v>
+      </c>
+      <c r="I5" s="3">
+        <v>404</v>
+      </c>
+      <c r="J5" s="3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>IF(B5&lt;B4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" ref="C6" si="0">IF(C5&lt;C4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" ref="D6" si="1">IF(D5&lt;D4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" ref="E6" si="2">IF(E5&lt;E4,"diminution","augmentation")</f>
+        <v>augmentation</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" ref="F6" si="3">IF(F5&lt;F4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ref="G6" si="4">IF(G5&lt;G4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" ref="H6" si="5">IF(H5&lt;H4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" ref="I6" si="6">IF(I5&lt;I4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" ref="J6" si="7">IF(J5&lt;J4,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50433352</v>
+      </c>
+      <c r="C8" s="3">
+        <v>25107319</v>
+      </c>
+      <c r="D8" s="4">
+        <v>22579219</v>
+      </c>
+      <c r="E8" s="5">
+        <v>40904579</v>
+      </c>
+      <c r="F8" s="3">
+        <v>25343352</v>
+      </c>
+      <c r="G8" s="3">
+        <v>16890725</v>
+      </c>
+      <c r="H8" s="4">
+        <v>25158502</v>
+      </c>
+      <c r="I8" s="3">
+        <v>19293558</v>
+      </c>
+      <c r="J8" s="3">
+        <v>19787615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>49195281</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17095874</v>
+      </c>
+      <c r="D9" s="4">
+        <v>22880242</v>
+      </c>
+      <c r="E9" s="5">
+        <v>42252787</v>
+      </c>
+      <c r="F9" s="3">
+        <v>24536649</v>
+      </c>
+      <c r="G9" s="3">
+        <v>16005557</v>
+      </c>
+      <c r="H9" s="4">
+        <v>25674853</v>
+      </c>
+      <c r="I9" s="3">
+        <v>18013446</v>
+      </c>
+      <c r="J9" s="3">
+        <v>19603097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>IF(B9&lt;B8,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" ref="C10:J10" si="8">IF(C9&lt;C8,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>augmentation</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>augmentation</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>diminution</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>diminution</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>augmentation</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>diminution</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>diminution</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>2009</v>
       </c>
-      <c r="B4">
-        <v>9400</v>
-      </c>
-      <c r="C4">
-        <v>3277</v>
-      </c>
-      <c r="D4" s="2">
-        <v>613</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3723</v>
-      </c>
-      <c r="F4">
-        <v>1044</v>
-      </c>
-      <c r="G4">
-        <v>770</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1411</v>
-      </c>
-      <c r="I4">
-        <v>458</v>
-      </c>
-      <c r="J4">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B16" s="3">
+        <v>5789</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1874</v>
+      </c>
+      <c r="D16" s="4">
+        <v>605</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2675</v>
+      </c>
+      <c r="F16" s="3">
+        <v>922</v>
+      </c>
+      <c r="G16" s="3">
+        <v>666</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1175</v>
+      </c>
+      <c r="I16" s="3">
+        <v>450</v>
+      </c>
+      <c r="J16" s="3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>2018</v>
       </c>
-      <c r="B5">
-        <v>6531</v>
-      </c>
-      <c r="C5">
-        <v>2904</v>
-      </c>
-      <c r="D5" s="2">
-        <v>596</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3742</v>
-      </c>
-      <c r="F5">
-        <v>914</v>
-      </c>
-      <c r="G5">
-        <v>552</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1327</v>
-      </c>
-      <c r="I5">
-        <v>404</v>
-      </c>
-      <c r="J5">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="str">
-        <f>IF(B5&lt;B4,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="0">IF(C5&lt;C4,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="1">IF(D5&lt;D4,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6" si="2">IF(E5&lt;E4,"diminution","augmentation")</f>
-        <v>augmentation</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" ref="F6" si="3">IF(F5&lt;F4,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6" si="4">IF(G5&lt;G4,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6" si="5">IF(H5&lt;H4,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6" si="6">IF(I5&lt;I4,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ref="J6" si="7">IF(J5&lt;J4,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B17" s="3">
+        <v>4469</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1682</v>
+      </c>
+      <c r="D17" s="4">
+        <v>589</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2727</v>
+      </c>
+      <c r="F17" s="3">
+        <v>827</v>
+      </c>
+      <c r="G17" s="3">
+        <v>505</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1126</v>
+      </c>
+      <c r="I17" s="3">
+        <v>396</v>
+      </c>
+      <c r="J17" s="3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>IF(B17&lt;B16,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" ref="C18:J18" si="9">IF(C17&lt;C16,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>diminution</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>augmentation</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>diminution</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>diminution</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>diminution</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>diminution</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>diminution</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45419389</v>
+      </c>
+      <c r="C20" s="3">
+        <v>22455856</v>
+      </c>
+      <c r="D20" s="4">
+        <v>22495017</v>
+      </c>
+      <c r="E20" s="5">
+        <v>38537654</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24973105</v>
+      </c>
+      <c r="G20" s="3">
+        <v>16573479</v>
+      </c>
+      <c r="H20" s="4">
+        <v>24610364</v>
+      </c>
+      <c r="I20" s="3">
+        <v>19241479</v>
+      </c>
+      <c r="J20" s="3">
+        <v>19722886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45217556</v>
+      </c>
+      <c r="C21" s="3">
+        <v>14587842</v>
+      </c>
+      <c r="D21" s="4">
+        <v>22793564</v>
+      </c>
+      <c r="E21" s="5">
+        <v>39836782</v>
+      </c>
+      <c r="F21" s="3">
+        <v>24246766</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15836176</v>
+      </c>
+      <c r="H21" s="4">
+        <v>25129309</v>
+      </c>
+      <c r="I21" s="3">
+        <v>17958196</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19497198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f>IF(B21&lt;B20,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" ref="C22:J22" si="10">IF(C21&lt;C20,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>augmentation</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>augmentation</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>diminution</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>diminution</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>augmentation</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>diminution</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>diminution</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B28" s="3">
+        <v>750</v>
+      </c>
+      <c r="C28" s="3">
+        <v>730</v>
+      </c>
+      <c r="D28" s="3">
+        <v>263</v>
+      </c>
+      <c r="E28" s="3">
+        <v>740</v>
+      </c>
+      <c r="F28" s="3">
+        <v>505</v>
+      </c>
+      <c r="G28" s="3">
+        <v>411</v>
+      </c>
+      <c r="H28" s="3">
+        <v>530</v>
+      </c>
+      <c r="I28" s="3">
+        <v>278</v>
+      </c>
+      <c r="J28" s="3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="3">
+        <v>757</v>
+      </c>
+      <c r="C29" s="3">
+        <v>715</v>
+      </c>
+      <c r="D29" s="3">
+        <v>251</v>
+      </c>
+      <c r="E29" s="3">
+        <v>740</v>
+      </c>
+      <c r="F29" s="3">
+        <v>469</v>
+      </c>
+      <c r="G29" s="3">
+        <v>339</v>
+      </c>
+      <c r="H29" s="3">
+        <v>523</v>
+      </c>
+      <c r="I29" s="3">
+        <v>251</v>
+      </c>
+      <c r="J29" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f>IF(B29&lt;B28,"diminution","augmentation")</f>
+        <v>augmentation</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" ref="C30:J30" si="11">IF(C29&lt;C28,"diminution","augmentation")</f>
+        <v>diminution</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>diminution</v>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>augmentation</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>diminution</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>diminution</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>diminution</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>diminution</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>diminution</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>2009</v>
       </c>
-      <c r="B11">
-        <v>50433352</v>
-      </c>
-      <c r="C11">
-        <v>25107319</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22579219</v>
-      </c>
-      <c r="E11" s="1">
-        <v>40904579</v>
-      </c>
-      <c r="F11">
-        <v>25343352</v>
-      </c>
-      <c r="G11">
-        <v>16890725</v>
-      </c>
-      <c r="H11" s="2">
-        <v>25158502</v>
-      </c>
-      <c r="I11">
-        <v>19293558</v>
-      </c>
-      <c r="J11">
-        <v>19787615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B32" s="3">
+        <v>52586706</v>
+      </c>
+      <c r="C32" s="3">
+        <v>52417454</v>
+      </c>
+      <c r="D32" s="3">
+        <v>48318829</v>
+      </c>
+      <c r="E32" s="3">
+        <v>52591452</v>
+      </c>
+      <c r="F32" s="3">
+        <v>50961982</v>
+      </c>
+      <c r="G32" s="3">
+        <v>48038264</v>
+      </c>
+      <c r="H32" s="3">
+        <v>50850473</v>
+      </c>
+      <c r="I32" s="3">
+        <v>48521170</v>
+      </c>
+      <c r="J32" s="3">
+        <v>49744735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>2018</v>
       </c>
-      <c r="B12">
-        <v>49195281</v>
-      </c>
-      <c r="C12">
-        <v>17095874</v>
-      </c>
-      <c r="D12" s="2">
-        <v>22880242</v>
-      </c>
-      <c r="E12" s="1">
-        <v>42252787</v>
-      </c>
-      <c r="F12">
-        <v>24536649</v>
-      </c>
-      <c r="G12">
-        <v>16005557</v>
-      </c>
-      <c r="H12" s="2">
-        <v>25674853</v>
-      </c>
-      <c r="I12">
-        <v>18013446</v>
-      </c>
-      <c r="J12">
-        <v>19603097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <f>IF(B12&lt;B11,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" ref="C13:J13" si="8">IF(C12&lt;C11,"diminution","augmentation")</f>
-        <v>diminution</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>augmentation</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>augmentation</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="8"/>
-        <v>diminution</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="8"/>
-        <v>diminution</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>augmentation</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="8"/>
-        <v>diminution</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="8"/>
-        <v>diminution</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
+      <c r="B33" s="3">
+        <v>54607024</v>
+      </c>
+      <c r="C33" s="3">
+        <v>53803199</v>
+      </c>
+      <c r="D33" s="3">
+        <v>50022838</v>
+      </c>
+      <c r="E33" s="3">
+        <v>54530420</v>
+      </c>
+      <c r="F33" s="3">
+        <v>52515369</v>
+      </c>
+      <c r="G33" s="3">
+        <v>49375232</v>
+      </c>
+      <c r="H33" s="3">
+        <v>52875105</v>
+      </c>
+      <c r="I33" s="3">
+        <v>49530474</v>
+      </c>
+      <c r="J33" s="3">
+        <v>51159137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="B34" s="3" t="str">
+        <f>IF(B33&lt;B32,"diminution","augmentation")</f>
+        <v>augmentation</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" ref="C34:J34" si="12">IF(C33&lt;C32,"diminution","augmentation")</f>
+        <v>augmentation</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>augmentation</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>augmentation</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>augmentation</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>augmentation</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>augmentation</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>augmentation</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>augmentation</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A31:J31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
